--- a/尝试找问题/论文阅读笔记/调研.xlsx
+++ b/尝试找问题/论文阅读笔记/调研.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simulator-project\尝试找问题\论文阅读笔记\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF060A-9512-40D6-A438-8EF93CB7205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,14 +27,694 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+  <si>
+    <t>论文标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tianshu: Towards Accurate Measuring, Modeling and Simulation of Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yicheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proteus: Simulating the Performance of Distributed DNN Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARK: GPU-driven Code Execution for Distributed Deep Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>why comp &amp; comm overlap leads to slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daydream: Accurately Estimating the Efficacy of Optimizations for DNN Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX ATC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Srifty: Swift and Thrifty Distributed Neural Network Training on the Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLSys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulating Performance of Distributed GPU Training and Serving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Modeling and Scalability Optimization of Distributed Deep Learning Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGKDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimus: An Efficient Dynamic Resource Scheduler for Deep Learning Clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EuroSys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERAK: An Analytical Performance Simulator for Large-Scale Distributed Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. develop a novel</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performance model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for scalability estimation of distributed DNNs
+2. build a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scalability optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that efficiently searches and finds the optimal system configurations for distributed DNN training
+3. evaluate and validate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estimation accuracy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the performance model and the benefits of the scalability optimizer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Too detailed and too specific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It requires a lot of knowledge about internals of the ML model and hardware etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Its output only indicates which configuration might be better, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">but it can't give a accurate training time estimation(differnece &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it noticed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an important problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and try very hard to model it (with detailed and complex math equations)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时分布式训练还是一个新的场景，新的场景里有新的问题：原先是在一个机器上训练，现在变成了cluster，那么这个cluster的hardware configuration要怎么设置才最好呢？(这篇文章认为的hardware configuration主要也跟分布式场景的各种并行有关，比如model parallel需要确定把model partion成几份，这就是一种配置的选择)
+这时候，作者把新问题跟原来的问题联系起来。已经知道，深度学习训练中有很多hyper-parameters，所以要达到最好的效果，模型训练是一个trial and error的过程。现在这个情况相当于出现了an additional set of parameters
+这篇文章另一个比较重要的发现是模型训练的hyper-parameters设置相同的情况下，不同的hardware configuration会造成both efficiency and accuracy的巨大差异（fig 3）这就使本文的工作显得很必要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large DNN models have been very successful yet difficult to train due to their large size. To expedite training process, Large DNN models are partitioned across machines over cluster. However, the optimal partitioning configuration is difficult to find, which greatly influences the efficiency. Thus, we need a convinient way to quantify the impact of these configuration on overall distributed system performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>观察performance modeling /simulation的发展脉络，真的能感觉到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抽象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的力量。其实从模拟效果和选择的方法(太detailed)上说，这篇文章都不见得很好；但是它提出的问题很重要。后来DNN的模拟器的目标从单纯的模拟分布式训练的性能影响扩展到很多方面，比如其他因素对性能的影响，比如用模拟器来做完全不同的事，像是估计Optimizations for DNN Training的有效性等等。一切都从这里开始。后面很多performance simulator的工作都用了它的story。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of Hong Kong; Bytedance Inc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Survey on Performance Modeling and Prediction
+for Distributed DNN Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TPDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A generic communication scheduler for distributed DNN training acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulator type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analytical model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabling Compute-Communication Overlap in
+Distributed Deep Learning Training Platforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlapping Communication With Computation in Parameter Server for Scalable DL Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Modeling and Evaluation of
+Distributed Deep Learning Frameworks on GPUs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph-Based Model</t>
+  </si>
+  <si>
+    <t>SimAI: Unifying Architecture Design and Performance Tunning for Large-Scale Large Language Model Training with Scalability and Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paleo: A Performance Model for Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beyond Data and Model Parallelism for Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dPRO: A Generic Performance Diagnosis and Optimization Toolkit for Expediting Distributed DNN Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistSim: A performance model of large-scale hybrid distributed
+DNN training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expediting Distributed DNN Training With Device Topology-Aware Graph Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlap好处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution-Driven Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A model-based approach to streamlining distributed training for asynchronous SGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASCOTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throughput prediction of asynchronous SGD in TensorFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicting throughput of distributed stochastic gradient descent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerFestimator: A generic and extensible performance estimator for data parallel DNN training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudIntelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNNEmu: A Lightweight Performance Emulator for Distributed DNN Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA3PP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistIR: An intermediate representation for optimizing distributed neural networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EuroMLSys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASC/PiCom/DataCom/CyberSciTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astra-sim: Enabling SW/HW co-design exploration for distributed DL training platforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISPASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology; Facebook; Intel;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASTRA-sim2.0: Modeling Hierarchical Networks and Disaggregated Systems for Large-model Training at Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology; Meta; Intel;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analytical + ML-model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO; comp &amp; comm overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling the Training Iteration Time for Heterogeneous Distributed Deep Learning Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Journal of Intelligent Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMPeD: An analytical model for performance in distributed training of transformers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISPASS</t>
+  </si>
+  <si>
+    <t>Calculon: A methodology and tool for high-level codesign of systems and large language models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FasterMoE: modeling and optimizing training of large-scale dynamic pre-trained models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPoPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSG: Profiling-Free Parallelism Modeling for Distributed Training of DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Journal of Parallel Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp &amp; comm overlap好处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance modeling in distributed DNN training;  scalebility; optimal configuration; comp&amp;comm;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp &amp; comm overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp &amp; comm overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph-based + ML-model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon: An Efficient Communication Architecture for Distributed Deep Learning on GPU Clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早提出comm&amp;comp overlap，设计被tensorflow采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This paper proposed a new strategy to conduct the overlap through partitioning communication and computation in various partition sizes</t>
+  </si>
+  <si>
+    <t>2.2 Communication and Computation Overlap和2.3 Case Studies值得一看！2.3节详细分析了为什么overlap可能带来性能增益。论文中的几个图都作得很好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典文章，被引434次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large DNN models successful 
+--&gt; need distributed training 
+--&gt;PS architechture being the most popular commnication implementation for distributed training 
+--&gt; PS architechture scales poorly due to cluster network bandwidth bottleneck 
+--&gt;One of the solution: overlap communication with backward computation layer by layer, reduce execution time
+--&gt; exsiting solution brings huge overhead when number of layers is large（通信次数增多，通信的总startup time变大带来overhead）, and it can't overlap in forward period
+--&gt; need better solution!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It takes too long to train DNN model on single machine
+--&gt;need distributed training over cluster
+--&gt;current distributed DL implementation scales poorly due to substantial parameter synchronization over the network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +738,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +809,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93746</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2435352</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2105527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F7F7C5-5B75-2996-18D0-80D80EE67C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22131588" y="1420228"/>
+          <a:ext cx="2341606" cy="1998746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2476957</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>245934</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2471487" cy="1238801"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE35E21C-0327-8B80-DE38-887FCF80557C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24509267" y="1566296"/>
+          <a:ext cx="2471487" cy="1238801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>overlap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>本质上解决的是并行算法里的一种问题，当数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>操作之间没有依赖时，就应该能够把它们并行地计算，消除序列性。这篇文章主要探讨的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" kern="1200"/>
+            <a:t>如何更高效地进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" kern="1200"/>
+            <a:t>comp &amp; comm overlap, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" kern="1200"/>
+            <a:t>提高分布式训练的效率</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101553</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3876182</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2280046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247124EA-7035-755A-8541-4B20302C1A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27170412" y="1359764"/>
+          <a:ext cx="3774629" cy="2229970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1249,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="48.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="66.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="59.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="27.625" style="1" customWidth="1"/>
+    <col min="14" max="31" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+    </row>
+    <row r="5" spans="1:31" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:L8" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L36">
+      <sortCondition ref="E5:E36"/>
+      <sortCondition ref="B5:B36"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>